--- a/input.xlsx
+++ b/input.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Flutter\flutter_string\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\Gen-tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B079FC4E-2869-46DF-BCA3-4B436AEBC2DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -102,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -905,11 +906,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,5 +1031,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\Gen-tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B079FC4E-2869-46DF-BCA3-4B436AEBC2DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A837F31C-4C02-43D6-A9E8-710126216387}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,7 +97,7 @@
     <t>no network connection</t>
   </si>
   <si>
-    <t>if (code &gt;= 'a'.codeUnitAt(0) &amp;&amp; code &lt;= 'z'.codeUnitAt(0)) { return code - 'a'.codeUnitAt(0); } else if (code &gt;= 'A'.codeUnitAt(0) &amp;&amp; code &lt;= 'Z'.codeUnitAt(0)) { return code - 'A'.codeUnitAt(0); } else if (code &gt;= '1'.codeUnitAt(0) &amp;&amp; code &lt;= '9'.codeUnitAt(0)) { return code - '1'.codeUnitAt(0); } else return -1; }</t>
+    <t>Test,kiems::</t>
   </si>
 </sst>
 </file>
@@ -910,7 +910,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1018,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tools\Gen-tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A837F31C-4C02-43D6-A9E8-710126216387}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D735E42C-E3F8-48D6-9CA6-065284F0F778}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>key</t>
   </si>
@@ -43,9 +43,6 @@
     <t>bottom_tab_newest_title</t>
   </si>
   <si>
-    <t>Latest</t>
-  </si>
-  <si>
     <t>Mới nhất</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
     <t>bottom_tab_notify_title</t>
   </si>
   <si>
-    <t>Notification</t>
-  </si>
-  <si>
     <t>Thông báo</t>
   </si>
   <si>
@@ -85,12 +79,6 @@
     <t>error_common</t>
   </si>
   <si>
-    <t>An error has occurred</t>
-  </si>
-  <si>
-    <t>Có lỗi xẩy ra</t>
-  </si>
-  <si>
     <t>error_no_network</t>
   </si>
   <si>
@@ -98,6 +86,15 @@
   </si>
   <si>
     <t>Test,kiems::</t>
+  </si>
+  <si>
+    <t>return_type</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Có lỗi xảy ra</t>
   </si>
 </sst>
 </file>
@@ -907,126 +904,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>-10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D10" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
